--- a/RHCP_Validation_Measurements/template_time.xlsx
+++ b/RHCP_Validation_Measurements/template_time.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pjs5523/Box/1 - Pierre-Clement/PSU Research/Microstructure_Analysis_project/Validation_Images_bank/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pjs5523/Box/1 - Pierre-Clement/PSU Research/Microstructure_Analysis_project/Validation_Images_bank/RHCP_Validation_Measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CF768BE-E518-3B4B-9FEB-887D1ACD50BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A49F4F-F16A-4C4C-9AA3-F791D41E2B92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{179E6102-15FF-E84B-8108-15EA1399B97D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26620" xr2:uid="{179E6102-15FF-E84B-8108-15EA1399B97D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>ImageJ</t>
+    <t>Binarization time</t>
   </si>
   <si>
-    <t>Active time</t>
+    <t>ImageJ analysis time</t>
   </si>
   <si>
-    <t>Total time</t>
-  </si>
-  <si>
-    <t>MATLAB</t>
+    <t>MATLAB measurements time</t>
   </si>
 </sst>
 </file>
@@ -388,34 +385,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC95994-EC93-E446-AA66-442303DFC68C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/RHCP_Validation_Measurements/template_time.xlsx
+++ b/RHCP_Validation_Measurements/template_time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pjs5523/Box/1 - Pierre-Clement/PSU Research/Microstructure_Analysis_project/Validation_Images_bank/RHCP_Validation_Measurements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pierre-clementsimon/Box/1 - Pierre-Clement/PSU Research/Microstructure_Analysis_project/Validation_Images_bank/RHCP_Validation_Measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A49F4F-F16A-4C4C-9AA3-F791D41E2B92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4640E13-0157-6C45-923C-B5DE4C83C65D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26620" xr2:uid="{179E6102-15FF-E84B-8108-15EA1399B97D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{179E6102-15FF-E84B-8108-15EA1399B97D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Binarization time</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>MATLAB measurements time</t>
+  </si>
+  <si>
+    <t>Minutes</t>
   </si>
 </sst>
 </file>
@@ -385,32 +388,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC95994-EC93-E446-AA66-442303DFC68C}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
